--- a/data/trans_orig/P41C1_AOS_2023_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P41C1_AOS_2023_R-Clase-trans_orig.xlsx
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>2.250848724381454</v>
+        <v>2.250848724381453</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>2.40925781407862</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.340606852414519</v>
+        <v>1.221192945822465</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.423556943109529</v>
+        <v>1.343899249665407</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.574197503885838</v>
+        <v>1.553368267188316</v>
       </c>
     </row>
     <row r="6">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.240578180259862</v>
+        <v>4.153413120519499</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.719904950245154</v>
+        <v>3.688802221182445</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.44613560630595</v>
+        <v>3.282455260151164</v>
       </c>
     </row>
     <row r="7">
@@ -635,10 +635,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.698550138067143</v>
+        <v>1.710446491109581</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.980726349717299</v>
+        <v>2.030869885406895</v>
       </c>
     </row>
     <row r="9">
@@ -652,10 +652,10 @@
         <v>4.652155594608761</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.66813631515729</v>
+        <v>5.54604662302003</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.958574040557926</v>
+        <v>4.973848717118257</v>
       </c>
     </row>
     <row r="10">
@@ -687,11 +687,11 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7039808523636282</v>
+        <v>0.7106457621421918</v>
       </c>
       <c r="D11" s="5" t="inlineStr"/>
       <c r="E11" s="5" t="n">
-        <v>0.6361553115611733</v>
+        <v>0.6776449873455613</v>
       </c>
     </row>
     <row r="12">
@@ -706,7 +706,7 @@
       </c>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="n">
-        <v>7.745239131646348</v>
+        <v>9.891209196366759</v>
       </c>
     </row>
     <row r="13">
@@ -721,13 +721,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>3.048077905189906</v>
+        <v>3.048077905189908</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>5.686490990756563</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3.821886796437028</v>
+        <v>3.82188679643703</v>
       </c>
     </row>
     <row r="14">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.99330338077023</v>
+        <v>1.944465371261071</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.170495325275979</v>
+        <v>1.753307708825821</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.554438615774574</v>
+        <v>2.48316664410371</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.258288548238991</v>
+        <v>4.229500024657335</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>11.76589282029474</v>
+        <v>11.59643045424934</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.42472089625553</v>
+        <v>6.92113874252983</v>
       </c>
     </row>
     <row r="16">
@@ -794,10 +794,10 @@
       </c>
       <c r="C17" s="5" t="inlineStr"/>
       <c r="D17" s="5" t="n">
-        <v>1.517948560803435</v>
+        <v>1.543375294748676</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.003836143319648</v>
+        <v>2.18544372620036</v>
       </c>
     </row>
     <row r="18">
@@ -809,10 +809,10 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>3.936307462668106</v>
+        <v>3.898862950189335</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.884672309568382</v>
+        <v>8.121589664542634</v>
       </c>
     </row>
     <row r="19">
@@ -871,7 +871,7 @@
         <v>3.055380322871927</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>3.473314896977169</v>
+        <v>3.473314896977168</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>3.271374901688126</v>
@@ -885,13 +885,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.106281517867254</v>
+        <v>2.042148318333038</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.522807485293158</v>
+        <v>2.460067333276375</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.420484144091885</v>
+        <v>2.443522075330955</v>
       </c>
     </row>
     <row r="24">
@@ -902,13 +902,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.843069253695935</v>
+        <v>4.799431407892145</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.05630573486387</v>
+        <v>5.123355857054229</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.327124616596068</v>
+        <v>4.350086536215804</v>
       </c>
     </row>
     <row r="25">
